--- a/XlsxToLua/bin/Debug/TestExcel/TestChecker.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/TestChecker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="164">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,9 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itemName1</t>
-  </si>
-  <si>
     <t>notEmpty[value]</t>
   </si>
   <si>
@@ -235,35 +232,424 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>值非空检查（lang），既检查是否都填写了key值也检查填写的key是否在lang文件能找到对应值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUniqueForInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值唯一性检查（int）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值唯一性检查（float）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值唯一性检查（string）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUniqueForFloat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值唯一性检查（lang），只检查key不能重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUniqueForString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUniqueForLang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值唯一性检查（lang），检查key以及对应的value值均不能重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique[value]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUniqueForLang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值唯一性检查（string），值空格不同应该识别为不同的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUniqueForString2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值引用检查（int），检查填写的所有值是否在本表格主键列中有对应相等值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRefForInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref:TestChecker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRange1ForFloat1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref:TestChecker-testRange1ForFloat1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值引用检查（float）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值引用检查（string）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRefForFloat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRefForString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testEffectiveForString1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref:TestChecker-testEffectiveForString1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> a </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> a </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> a  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件中的规则检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testConfigRule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$propQuality</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file(png):\Assert\Resources\Texture\PropIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件存在性检查，统一声明文件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件存在性检查，不统一声明文件类型，而在单元格中自己填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testFile1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file:\Assert\Resources\Texture\PropIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testFile2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义检查函数检查（以测试奖励列表是否正确为例）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>array[dict[3]:2]</t>
+  </si>
+  <si>
+    <t>dict[3]</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>testFunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励物1</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>奖励物2</t>
+  </si>
+  <si>
+    <t>{1,2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试多个检查条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testMultipleCheckRule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notEmpty[trim] &amp;&amp; unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> itemName100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> itemName100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值非空检查（lang），检查统一key名规则的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>testNotEmptyForLang3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>值非空检查（lang），既检查是否都填写了key值也检查填写的key是否在lang文件能找到对应值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUniqueForInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值唯一性检查（int）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值唯一性检查（float）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
+    <t>testNotEmptyForLang4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang(itemName{id})</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,368 +657,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值唯一性检查（string）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUniqueForFloat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值唯一性检查（lang），只检查key不能重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUniqueForString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUniqueForLang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> itemName1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值唯一性检查（lang），检查key以及对应的value值均不能重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemName4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemName5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique[value]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUniqueForLang2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值唯一性检查（string），值空格不同应该识别为不同的字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">a </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUniqueForString2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemName1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> itemName1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值引用检查（int），检查填写的所有值是否在本表格主键列中有对应相等值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRefForInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref:TestChecker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRange1ForFloat1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref:TestChecker-testRange1ForFloat1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值引用检查（float）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值引用检查（string）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRefForFloat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRefForString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testEffectiveForString1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref:TestChecker-testEffectiveForString1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> a </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> a </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> a  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置文件中的规则检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testConfigRule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$propQuality</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> item1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file(png):\Assert\Resources\Texture\PropIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件存在性检查，统一声明文件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件存在性检查，不统一声明文件类型，而在单元格中自己填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testFile1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file:\Assert\Resources\Texture\PropIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testFile2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item1.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义检查函数检查（以测试奖励列表是否正确为例）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>array[dict[3]:2]</t>
-  </si>
-  <si>
-    <t>dict[3]</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>testFunc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励物1</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>奖励物2</t>
-  </si>
-  <si>
-    <t>{1,2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,50]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>func:CheckRewardList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试多个检查条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testMultipleCheckRule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notEmpty[trim] &amp;&amp; unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> a</t>
+    <t>func:CheckRewardListField</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +1129,7 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1121,24 +1146,24 @@
     <col min="10" max="11" width="27.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="27.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="25.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="22.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.25" style="2" customWidth="1"/>
-    <col min="17" max="18" width="24.75" style="2" customWidth="1"/>
-    <col min="19" max="20" width="22.5" style="2" customWidth="1"/>
-    <col min="21" max="21" width="24.75" style="2" customWidth="1"/>
-    <col min="22" max="22" width="20.75" style="2" customWidth="1"/>
-    <col min="23" max="23" width="19.75" style="2" customWidth="1"/>
-    <col min="24" max="24" width="21.375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="19.75" style="2" customWidth="1"/>
-    <col min="26" max="26" width="23.75" style="2" customWidth="1"/>
-    <col min="27" max="27" width="25.5" style="2" customWidth="1"/>
-    <col min="28" max="35" width="9" style="2"/>
-    <col min="36" max="36" width="26.5" style="2" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="2"/>
+    <col min="14" max="15" width="22.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="22.25" style="2" customWidth="1"/>
+    <col min="18" max="19" width="24.75" style="2" customWidth="1"/>
+    <col min="20" max="21" width="22.5" style="2" customWidth="1"/>
+    <col min="22" max="22" width="24.75" style="2" customWidth="1"/>
+    <col min="23" max="23" width="20.75" style="2" customWidth="1"/>
+    <col min="24" max="24" width="19.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="21.375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="19.75" style="2" customWidth="1"/>
+    <col min="27" max="27" width="23.75" style="2" customWidth="1"/>
+    <col min="28" max="28" width="27.625" style="2" customWidth="1"/>
+    <col min="29" max="36" width="9" style="2"/>
+    <col min="37" max="37" width="26.5" style="2" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,82 +1198,85 @@
         <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AE1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="AH1" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1287,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -1271,7 +1299,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>27</v>
@@ -1283,78 +1311,81 @@
         <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="AE2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5" t="s">
-        <v>137</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG2" s="5"/>
       <c r="AH2" s="5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1389,82 +1420,85 @@
         <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="T3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Z3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="AB3" s="5" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1499,71 +1533,74 @@
         <v>44</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF4" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
-      <c r="AI4" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>154</v>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>1</v>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="B5" s="2">
         <v>-1</v>
@@ -1589,50 +1626,50 @@
       <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>0</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="W5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA5" s="4"/>
-      <c r="AC5" s="4">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB5" s="4"/>
       <c r="AD5" s="4">
         <v>1</v>
       </c>
       <c r="AE5" s="4">
+        <v>100001</v>
+      </c>
+      <c r="AF5" s="4">
         <v>1</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AG5" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>2</v>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1668,69 +1705,69 @@
         <v>45</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="2">
+        <v>52</v>
+      </c>
+      <c r="P6" s="2">
         <v>1</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>87</v>
+      <c r="Q6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA6" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="4">
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4">
         <v>3</v>
       </c>
-      <c r="AD6" s="4">
-        <v>1</v>
-      </c>
       <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
         <v>10</v>
       </c>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4">
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4">
         <v>3</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>1</v>
       </c>
       <c r="AI6" s="4">
         <v>0</v>
       </c>
-      <c r="AJ6" s="2" t="s">
-        <v>155</v>
+      <c r="AJ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>3</v>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
@@ -1751,7 +1788,7 @@
         <v>3.7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
@@ -1771,70 +1808,70 @@
       <c r="N7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>0</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="Q7" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="R7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="T7" s="2" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="Y7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="4">
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4">
         <v>1</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AE7" s="4">
         <v>100</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AF7" s="4">
         <v>50</v>
       </c>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4">
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4">
         <v>11</v>
       </c>
-      <c r="AH7" s="4">
-        <v>2</v>
-      </c>
       <c r="AI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
         <v>1</v>
       </c>
-      <c r="AJ7" s="2" t="s">
-        <v>156</v>
+      <c r="AK7" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>4</v>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
@@ -1867,73 +1904,73 @@
         <v>40</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="2">
+        <v>148</v>
+      </c>
+      <c r="P8" s="2">
         <v>2</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="Q8" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="R8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="T8" s="2" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="W8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="X8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="Z8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA8" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="4">
-        <v>1</v>
-      </c>
+      <c r="AC8" s="4"/>
       <c r="AD8" s="4">
         <v>1</v>
       </c>
       <c r="AE8" s="4">
+        <v>100001</v>
+      </c>
+      <c r="AF8" s="4">
         <v>55</v>
       </c>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="6">
-        <v>1</v>
-      </c>
+      <c r="AG8" s="4"/>
       <c r="AH8" s="6">
         <v>1</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AI8" s="4">
+        <v>100001</v>
+      </c>
+      <c r="AJ8" s="6">
         <v>50</v>
       </c>
-      <c r="AJ8" s="2" t="s">
-        <v>157</v>
+      <c r="AK8" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/XlsxToLua/bin/Debug/TestExcel/TestChecker.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/TestChecker.xlsx
@@ -1129,10 +1129,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1598,355 +1598,252 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB5" s="4"/>
-      <c r="AD5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>100001</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>-1</v>
-      </c>
-    </row>
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D6" s="2">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="E6" s="2">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB6" s="4"/>
+      <c r="AD6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="AE6" s="4">
+        <v>100001</v>
+      </c>
+      <c r="AF6" s="4">
         <v>1</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>10</v>
-      </c>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4">
-        <v>3</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>145</v>
+      <c r="AG6" s="4">
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>4.5</v>
+        <v>-1.5</v>
       </c>
       <c r="E7" s="2">
-        <v>4.5</v>
+        <v>-1.5</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>3.7</v>
+        <v>1.21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AI7" s="4">
         <v>0</v>
       </c>
       <c r="AJ7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="E8" s="2">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="F8" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P8" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="T8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -1954,22 +1851,126 @@
         <v>1</v>
       </c>
       <c r="AE8" s="4">
+        <v>100</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>50</v>
+      </c>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4">
+        <v>11</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4.51</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.51</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="4">
         <v>100001</v>
       </c>
-      <c r="AF8" s="4">
+      <c r="AF9" s="4">
         <v>55</v>
       </c>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="6">
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="6">
         <v>1</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AI9" s="4">
         <v>100001</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AJ9" s="6">
         <v>50</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>147</v>
       </c>
     </row>

--- a/XlsxToLua/bin/Debug/TestExcel/TestChecker.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/TestChecker.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具\XlsxToLua\bin\Debug\TestExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="21555" windowHeight="8280"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="356">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1336,6 +1341,90 @@
   </si>
   <si>
     <t>ref:TestChecker-testFunc[1].id(except{101})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法值检查（int）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法值检查（float）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法值检查（long）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法值检查（date）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法值检查（time）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法值检查（string），测试自定义的非法值分隔符为空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法值检查（string），测试默认用英文逗号分隔的非法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testIllegalForInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testIllegalForFloat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testIllegalForLong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testIllegalForString1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testIllegalForString2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testIllegalForDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testIllegalForTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!{1,3,5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!{1.2,3.7,5.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! {-1467331200000, 1467331200000, 1470009600000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! { a b c } ( )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!{2016-07-01 00:00:00,2016-07-01 01:01:01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! {00:00:00,01:01:01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!{ a ,b,cd}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1566,7 +1655,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1608,7 +1697,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1643,7 +1732,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1855,7 +1944,7 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BO9"/>
+  <dimension ref="A1:BV9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1875,32 +1964,37 @@
     <col min="19" max="19" width="21.875" style="2" customWidth="1"/>
     <col min="20" max="20" width="29.75" style="2" customWidth="1"/>
     <col min="21" max="23" width="27" style="2" customWidth="1"/>
-    <col min="24" max="25" width="27.25" style="2" customWidth="1"/>
-    <col min="26" max="26" width="27.5" style="2" customWidth="1"/>
-    <col min="27" max="27" width="25.125" style="2" customWidth="1"/>
-    <col min="28" max="31" width="22.125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="21.25" style="2" customWidth="1"/>
-    <col min="33" max="34" width="22.25" style="2" customWidth="1"/>
-    <col min="35" max="36" width="24.75" style="2" customWidth="1"/>
-    <col min="37" max="40" width="22.5" style="2" customWidth="1"/>
-    <col min="41" max="41" width="24.75" style="2" customWidth="1"/>
-    <col min="42" max="42" width="27" style="2" customWidth="1"/>
-    <col min="43" max="43" width="20.75" style="2" customWidth="1"/>
-    <col min="44" max="45" width="19.75" style="2" customWidth="1"/>
-    <col min="46" max="46" width="21.375" style="2" customWidth="1"/>
-    <col min="47" max="47" width="22.75" style="2" customWidth="1"/>
-    <col min="48" max="48" width="23" style="2" customWidth="1"/>
-    <col min="49" max="54" width="24.5" style="2" customWidth="1"/>
-    <col min="55" max="55" width="21.375" style="2" customWidth="1"/>
-    <col min="56" max="56" width="19.75" style="2" customWidth="1"/>
-    <col min="57" max="57" width="23.75" style="2" customWidth="1"/>
-    <col min="58" max="58" width="27.625" style="2" customWidth="1"/>
-    <col min="59" max="66" width="9" style="2"/>
-    <col min="67" max="67" width="26.5" style="2" customWidth="1"/>
-    <col min="68" max="16384" width="9" style="2"/>
+    <col min="24" max="24" width="21.875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="21" style="2" customWidth="1"/>
+    <col min="26" max="26" width="21.875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="29.75" style="2" customWidth="1"/>
+    <col min="28" max="30" width="27" style="2" customWidth="1"/>
+    <col min="31" max="32" width="27.25" style="2" customWidth="1"/>
+    <col min="33" max="33" width="27.5" style="2" customWidth="1"/>
+    <col min="34" max="34" width="25.125" style="2" customWidth="1"/>
+    <col min="35" max="38" width="22.125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="21.25" style="2" customWidth="1"/>
+    <col min="40" max="41" width="22.25" style="2" customWidth="1"/>
+    <col min="42" max="43" width="24.75" style="2" customWidth="1"/>
+    <col min="44" max="47" width="22.5" style="2" customWidth="1"/>
+    <col min="48" max="48" width="24.75" style="2" customWidth="1"/>
+    <col min="49" max="49" width="27" style="2" customWidth="1"/>
+    <col min="50" max="50" width="20.75" style="2" customWidth="1"/>
+    <col min="51" max="52" width="19.75" style="2" customWidth="1"/>
+    <col min="53" max="53" width="21.375" style="2" customWidth="1"/>
+    <col min="54" max="54" width="22.75" style="2" customWidth="1"/>
+    <col min="55" max="55" width="23" style="2" customWidth="1"/>
+    <col min="56" max="61" width="24.5" style="2" customWidth="1"/>
+    <col min="62" max="62" width="21.375" style="2" customWidth="1"/>
+    <col min="63" max="63" width="19.75" style="2" customWidth="1"/>
+    <col min="64" max="64" width="23.75" style="2" customWidth="1"/>
+    <col min="65" max="65" width="27.625" style="2" customWidth="1"/>
+    <col min="66" max="73" width="9" style="2"/>
+    <col min="74" max="74" width="26.5" style="2" customWidth="1"/>
+    <col min="75" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:74" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,140 +2064,161 @@
       <c r="W1" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AV1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AW1" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AX1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AY1" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="BD1" s="11" t="s">
+      <c r="BK1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BL1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BV1" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:67" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:74" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2173,136 +2288,157 @@
       <c r="W2" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AO2" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AV2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AW2" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AX2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AR2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="BB2" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="BE2" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="BF2" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="BG2" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BH2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BI2" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="BC2" s="7" t="s">
+      <c r="BJ2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="BD2" s="11" t="s">
+      <c r="BK2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BE2" s="11" t="s">
+      <c r="BL2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="BF2" s="5" t="s">
+      <c r="BM2" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5" t="s">
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="BI2" s="5" t="s">
+      <c r="BP2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BJ2" s="5" t="s">
+      <c r="BQ2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5" t="s">
+      <c r="BR2" s="5"/>
+      <c r="BS2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="BM2" s="5" t="s">
+      <c r="BT2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BN2" s="5" t="s">
+      <c r="BU2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="BO2" s="7" t="s">
+      <c r="BV2" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:74" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2372,140 +2508,161 @@
       <c r="W3" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AM3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AN3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AO3" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AP3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AR3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AS3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AT3" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AU3" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="AO3" s="10" t="s">
+      <c r="AV3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AP3" s="10" t="s">
+      <c r="AW3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AQ3" s="10" t="s">
+      <c r="AX3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AR3" s="10" t="s">
+      <c r="AY3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AS3" s="10" t="s">
+      <c r="AZ3" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="BA3" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="BC3" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="BD3" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="BE3" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="BF3" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BG3" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BH3" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BI3" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="BC3" s="7" t="s">
+      <c r="BJ3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="BD3" s="11" t="s">
+      <c r="BK3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="BE3" s="11" t="s">
+      <c r="BL3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="BF3" s="5" t="s">
+      <c r="BM3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="BG3" s="5" t="s">
+      <c r="BN3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="BH3" s="5" t="s">
+      <c r="BO3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BI3" s="5" t="s">
+      <c r="BP3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BJ3" s="5" t="s">
+      <c r="BQ3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BK3" s="5" t="s">
+      <c r="BR3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="BL3" s="5" t="s">
+      <c r="BS3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BM3" s="5" t="s">
+      <c r="BT3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BN3" s="5" t="s">
+      <c r="BU3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BO3" s="7" t="s">
+      <c r="BV3" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:67" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:74" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -2572,50 +2729,50 @@
       <c r="W4" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>35</v>
+      <c r="X4" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AF4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>73</v>
+      <c r="AF4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="AM4" s="8" t="s">
         <v>56</v>
@@ -2623,73 +2780,94 @@
       <c r="AN4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AO4" s="10" t="s">
+      <c r="AO4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AP4" s="10" t="s">
+      <c r="AW4" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="AQ4" s="10" t="s">
+      <c r="AX4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AR4" s="10" t="s">
+      <c r="AY4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AS4" s="10" t="s">
+      <c r="AZ4" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3" t="s">
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="BC4" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="BD4" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3" t="s">
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3" t="s">
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BI4" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="BC4" s="7" t="s">
+      <c r="BJ4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BD4" s="11" t="s">
+      <c r="BK4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="BE4" s="11" t="s">
+      <c r="BL4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="BF4" s="5" t="s">
+      <c r="BM4" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5" t="s">
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5" t="s">
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5"/>
-      <c r="BN4" s="5" t="s">
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="BO4" s="7" t="s">
+      <c r="BV4" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:74" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2712,44 +2890,51 @@
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
       <c r="BA5" s="3"/>
       <c r="BB5" s="3"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="11"/>
-      <c r="BE5" s="11"/>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="5"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="11"/>
       <c r="BM5" s="5"/>
       <c r="BN5" s="5"/>
-      <c r="BO5" s="7"/>
+      <c r="BO5" s="5"/>
+      <c r="BP5" s="5"/>
+      <c r="BQ5" s="5"/>
+      <c r="BR5" s="5"/>
+      <c r="BS5" s="5"/>
+      <c r="BT5" s="5"/>
+      <c r="BU5" s="5"/>
+      <c r="BV5" s="7"/>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
@@ -2819,90 +3004,111 @@
       <c r="W6" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="X6" s="2">
         <v>0</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="Y6" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AO6" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AS6" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AT6" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AU6" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AO6" s="2" t="s">
+      <c r="AV6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AW6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AQ6" s="2" t="s">
+      <c r="AX6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AY6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AZ6" s="4">
         <v>0</v>
       </c>
-      <c r="AT6" s="2" t="s">
+      <c r="BA6" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AU6" s="2" t="s">
+      <c r="BB6" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="AV6" s="2" t="s">
+      <c r="BC6" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="AW6" s="2" t="s">
+      <c r="BD6" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="AX6" s="2" t="s">
+      <c r="BE6" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AY6" s="2" t="s">
+      <c r="BF6" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AZ6" s="2" t="s">
+      <c r="BG6" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BA6" s="2" t="s">
+      <c r="BH6" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="BB6" s="2" t="s">
+      <c r="BI6" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="BC6" s="2" t="s">
+      <c r="BJ6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BE6" s="2" t="s">
+      <c r="BL6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BF6" s="4"/>
-      <c r="BH6" s="4">
+      <c r="BM6" s="4"/>
+      <c r="BO6" s="4">
         <v>1</v>
       </c>
-      <c r="BI6" s="4">
+      <c r="BP6" s="4">
         <v>100001</v>
       </c>
-      <c r="BJ6" s="4">
+      <c r="BQ6" s="4">
         <v>1</v>
       </c>
-      <c r="BK6" s="4">
+      <c r="BR6" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>150</v>
       </c>
@@ -2972,125 +3178,146 @@
       <c r="W7" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AL7" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AM7" s="2">
         <v>1</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AN7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AO7" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AS7" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AT7" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AU7" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AV7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AW7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="AX7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AS7" s="4">
+      <c r="AZ7" s="4">
         <v>3</v>
       </c>
-      <c r="AT7" s="2" t="s">
+      <c r="BA7" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="AU7" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AX7" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="AY7" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="AZ7" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA7" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="BB7" s="2" t="s">
         <v>294</v>
       </c>
       <c r="BC7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="BD7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BH7" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="BI7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BD7" s="2" t="s">
+      <c r="BK7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BE7" s="2" t="s">
+      <c r="BL7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4">
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4">
         <v>3</v>
       </c>
-      <c r="BI7" s="4">
+      <c r="BP7" s="4">
         <v>0</v>
       </c>
-      <c r="BJ7" s="4">
+      <c r="BQ7" s="4">
         <v>10</v>
       </c>
-      <c r="BK7" s="4"/>
-      <c r="BL7" s="4">
+      <c r="BR7" s="4"/>
+      <c r="BS7" s="4">
         <v>3</v>
       </c>
-      <c r="BM7" s="4">
+      <c r="BT7" s="4">
         <v>0</v>
       </c>
-      <c r="BN7" s="4">
+      <c r="BU7" s="4">
         <v>0</v>
       </c>
-      <c r="BO7" s="2" t="s">
+      <c r="BV7" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
@@ -3160,131 +3387,152 @@
       <c r="W8" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="X8" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AB8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AL8" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AM8" s="2">
         <v>0</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AN8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AO8" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AP8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AR8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AS8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AT8" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AU8" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AO8" s="2" t="s">
+      <c r="AV8" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AP8" s="2" t="s">
+      <c r="AW8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AX8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AR8" s="2" t="s">
+      <c r="AY8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AS8" s="4">
+      <c r="AZ8" s="4">
         <v>101</v>
       </c>
-      <c r="AT8" s="2" t="s">
+      <c r="BA8" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="AU8" s="2" t="s">
+      <c r="BB8" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="AV8" s="2" t="s">
+      <c r="BC8" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="AW8" s="2" t="s">
+      <c r="BD8" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="AX8" s="2" t="s">
+      <c r="BE8" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AY8" s="2" t="s">
+      <c r="BF8" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AZ8" s="2" t="s">
+      <c r="BG8" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="BA8" s="2" t="s">
+      <c r="BH8" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="BB8" s="2" t="s">
+      <c r="BI8" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="BC8" s="2" t="s">
+      <c r="BJ8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BD8" s="2" t="s">
+      <c r="BK8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BE8" s="2" t="s">
+      <c r="BL8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4">
+      <c r="BM8" s="4"/>
+      <c r="BN8" s="4"/>
+      <c r="BO8" s="4">
         <v>1</v>
       </c>
-      <c r="BI8" s="4">
+      <c r="BP8" s="4">
         <v>100</v>
       </c>
-      <c r="BJ8" s="4">
+      <c r="BQ8" s="4">
         <v>50</v>
       </c>
-      <c r="BK8" s="4"/>
-      <c r="BL8" s="4">
+      <c r="BR8" s="4"/>
+      <c r="BS8" s="4">
         <v>11</v>
       </c>
-      <c r="BM8" s="4">
+      <c r="BT8" s="4">
         <v>0</v>
       </c>
-      <c r="BN8" s="4">
+      <c r="BU8" s="4">
         <v>1</v>
       </c>
-      <c r="BO8" s="2" t="s">
+      <c r="BV8" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
@@ -3354,127 +3602,148 @@
       <c r="W9" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="X9" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="AF9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AL9" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AM9" s="2">
         <v>2</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AN9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AO9" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AP9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AQ9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AR9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AS9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AM9" s="2" t="s">
+      <c r="AT9" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AU9" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AO9" s="2" t="s">
+      <c r="AV9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AW9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AQ9" s="2" t="s">
+      <c r="AX9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AR9" s="2" t="s">
+      <c r="AY9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AS9" s="4">
+      <c r="AZ9" s="4">
         <v>100001</v>
       </c>
-      <c r="AT9" s="2" t="s">
+      <c r="BA9" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="AU9" s="2" t="s">
+      <c r="BB9" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="AV9" s="2" t="s">
+      <c r="BC9" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="AW9" s="2" t="s">
+      <c r="BD9" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="AX9" s="2" t="s">
+      <c r="BE9" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="AY9" s="2" t="s">
+      <c r="BF9" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AZ9" s="2" t="s">
+      <c r="BG9" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="BA9" s="2" t="s">
+      <c r="BH9" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="BB9" s="2" t="s">
+      <c r="BI9" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="BC9" s="2" t="s">
+      <c r="BJ9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BD9" s="2" t="s">
+      <c r="BK9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="BE9" s="2" t="s">
+      <c r="BL9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BF9" s="4"/>
-      <c r="BG9" s="4"/>
-      <c r="BH9" s="4">
+      <c r="BM9" s="4"/>
+      <c r="BN9" s="4"/>
+      <c r="BO9" s="4">
         <v>1</v>
       </c>
-      <c r="BI9" s="4">
+      <c r="BP9" s="4">
         <v>100001</v>
       </c>
-      <c r="BJ9" s="4">
+      <c r="BQ9" s="4">
         <v>55</v>
       </c>
-      <c r="BK9" s="4"/>
-      <c r="BL9" s="6">
+      <c r="BR9" s="4"/>
+      <c r="BS9" s="6">
         <v>1</v>
       </c>
-      <c r="BM9" s="4">
+      <c r="BT9" s="4">
         <v>100001</v>
       </c>
-      <c r="BN9" s="6">
+      <c r="BU9" s="6">
         <v>50</v>
       </c>
-      <c r="BO9" s="2" t="s">
+      <c r="BV9" s="2" t="s">
         <v>141</v>
       </c>
     </row>

--- a/XlsxToLua/bin/Debug/TestExcel/TestChecker.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/TestChecker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具\XlsxToLua\bin\Debug\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具 7.1\XlsxToLua\bin\Debug\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="368">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,629 +802,677 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>date(input=yyyy.MM.dd|toLua=#1970sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(toLua=#yyyy.MM.dd HH:mm:ss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(*,1:00:00]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(input=HH:mm:ss|toLua=#sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:0:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[*,09:50:30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:50:30</t>
+  </si>
+  <si>
+    <t>9:0:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(00:00:00,09:50:30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:50:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:50:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(toLua=HH:mm:ss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值有效性检查（date）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testEffectiveForDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(input=yyyy年MM月dd日 HH时mm分ss秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2016-07-01 00:00:00,2016-07-01 01:01:01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年7月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年07月01日 0分0秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年7月1日 1时1分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年7月1日 1时1分1秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值有效性检查（time）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testEffectiveForTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{00:00:00,01:01:01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值非空检查（lang），检查统一key名规则的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值非空检查（date）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testNotEmptyForLang4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testNotEmptyForDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-7-1 1:1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值非空检查（time）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testNotEmptyForTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值唯一性检查（date）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUniqueForDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-07-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-7-1 0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-7-1 0:0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-07-1 0:0:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值唯一性检查（time）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUniqueForTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围检测（long）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRangeForLong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRangeForLong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRangeForLong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(*,1467331200000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1467331200000</t>
+  </si>
+  <si>
+    <t>1467331200001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[*,1467331200000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1470009600000</t>
+  </si>
+  <si>
+    <t>1470009600001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1467331200020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值有效性检查（long）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testEffectiveForLong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{-1467331200000, 1467331200000, 1470009600000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1467331200000</t>
+  </si>
+  <si>
+    <t>值唯一性检查（long）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testUniqueForLong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1467331200000,1470009600000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1467331200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1467331200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值大小比较检查（int）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值大小比较检查（float）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值大小比较检查（long）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值大小比较检查时，作为被比较的列</t>
+  </si>
+  <si>
+    <t>值大小比较检查时，作为被比较的列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testGreaterThanForInt</t>
+  </si>
+  <si>
+    <t>testGreaterThanForLong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testGreaterThanForFloat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值大小比较检查（date）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testGreaterThanForDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值大小比较检查（time）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testGreaterThanNumberAsReference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=testGreaterThanNumberAsReference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;testGreaterThanNumberAsReference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testGreaterThanDateAsReference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testGreaterThanTimeAsReference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;testGreaterThanTimeAsReference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=testGreaterThanDateAsReference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-7-1 0:0:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-7-2 1:0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-07-3 0:0:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-7-2 0:0:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-07-3 0:1:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:0:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值大小比较检查(float)，与array嵌套dict下的字段进行比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testGreaterThanForTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testGreaterThanForSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testFunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值引用检查（string）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值引用检查（int），参考列为array嵌套dict型字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRefForString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRefForSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref:TestChecker(except{3})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;testFunc[1].id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref:TestChecker-testFunc[1].id(except{101})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法值检查（int）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法值检查（float）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法值检查（long）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法值检查（date）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法值检查（time）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法值检查（string），测试自定义的非法值分隔符为空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法值检查（string），测试默认用英文逗号分隔的非法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testIllegalForInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testIllegalForFloat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testIllegalForLong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testIllegalForString1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testIllegalForString2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testIllegalForDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testIllegalForTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!{1,3,5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!{1.2,3.7,5.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! {-1467331200000, 1467331200000, 1470009600000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! { a b c } ( )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!{2016-07-01 00:00:00,2016-07-01 01:01:01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! {00:00:00,01:01:01}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!{ a ,b,cd}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围检查（string）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围检查（lang）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>testRangeForTime3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date(input=yyyy.MM.dd|toLua=#1970sec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date(toLua=#yyyy.MM.dd HH:mm:ss)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(*,1:00:00]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time(input=HH:mm:ss|toLua=#sec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:0:59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:0:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[*,09:50:30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:50:30</t>
-  </si>
-  <si>
-    <t>9:0:59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(00:00:00,09:50:30]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:50:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:50:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time(toLua=HH:mm:ss)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值有效性检查（date）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testEffectiveForDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date(input=yyyy年MM月dd日 HH时mm分ss秒)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{2016-07-01 00:00:00,2016-07-01 01:01:01}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016年7月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016年07月01日 0分0秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016年7月1日 1时1分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016年7月1日 1时1分1秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值有效性检查（time）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testEffectiveForTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{00:00:00,01:01:01}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:1:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值非空检查（lang），检查统一key名规则的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值非空检查（date）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testNotEmptyForLang4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testNotEmptyForDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-7-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-7-1 1:1:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值非空检查（time）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testNotEmptyForTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:1:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值唯一性检查（date）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUniqueForDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-07-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-7-1 0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-7-1 0:0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-07-1 0:0:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值唯一性检查（time）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUniqueForTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:0:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围检测（long）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRangeForLong3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRangeForLong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRangeForLong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(*,1467331200000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1467331200000</t>
-  </si>
-  <si>
-    <t>1467331200001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[*,1467331200000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1470009600000</t>
-  </si>
-  <si>
-    <t>1470009600001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1467331200020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值有效性检查（long）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testEffectiveForLong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{-1467331200000, 1467331200000, 1470009600000}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1467331200000</t>
-  </si>
-  <si>
-    <t>值唯一性检查（long）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testUniqueForLong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1467331200000,1470009600000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1467331200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1467331200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值大小比较检查（int）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值大小比较检查（float）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值大小比较检查（long）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值大小比较检查时，作为被比较的列</t>
-  </si>
-  <si>
-    <t>值大小比较检查时，作为被比较的列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testGreaterThanForInt</t>
-  </si>
-  <si>
-    <t>testGreaterThanForLong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testGreaterThanForFloat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-10.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值大小比较检查（date）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testGreaterThanForDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值大小比较检查（time）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testGreaterThanNumberAsReference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=testGreaterThanNumberAsReference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;testGreaterThanNumberAsReference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testGreaterThanDateAsReference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testGreaterThanTimeAsReference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;testGreaterThanTimeAsReference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=testGreaterThanDateAsReference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-7-1 0:0:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-7-2 1:0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-07-3 0:0:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-7-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-7-2 0:0:59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-07-3 0:1:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:0:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值大小比较检查(float)，与array嵌套dict下的字段进行比较</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testGreaterThanForTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testGreaterThanForSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testFunc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值引用检查（string）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值引用检查（int），参考列为array嵌套dict型字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRefForString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRefForSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref:TestChecker(except{3})</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;testFunc[1].id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref:TestChecker-testFunc[1].id(except{101})</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法值检查（int）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法值检查（float）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法值检查（long）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法值检查（date）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法值检查（time）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法值检查（string），测试自定义的非法值分隔符为空格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法值检查（string），测试默认用英文逗号分隔的非法值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testIllegalForInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testIllegalForFloat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testIllegalForLong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testIllegalForString1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testIllegalForString2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testIllegalForDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testIllegalForTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!{1,3,5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!{1.2,3.7,5.0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>! {-1467331200000, 1467331200000, 1470009600000}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>! { a b c } ( )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!{2016-07-01 00:00:00,2016-07-01 01:01:01}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>! {00:00:00,01:01:01}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!{ a ,b,cd}</t>
+    <t>testRangeForString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRangeForLang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notExistKey1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3,6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1944,7 +1992,7 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BV9"/>
+  <dimension ref="A1:BX9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1958,43 +2006,43 @@
     <col min="11" max="11" width="25.125" style="2" customWidth="1"/>
     <col min="12" max="13" width="26.625" style="2" customWidth="1"/>
     <col min="14" max="14" width="26.25" style="2" customWidth="1"/>
-    <col min="15" max="16" width="26.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="21.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="21" style="2" customWidth="1"/>
+    <col min="15" max="18" width="26.625" style="2" customWidth="1"/>
     <col min="19" max="19" width="21.875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="29.75" style="2" customWidth="1"/>
-    <col min="21" max="23" width="27" style="2" customWidth="1"/>
-    <col min="24" max="24" width="21.875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="21" style="2" customWidth="1"/>
+    <col min="20" max="20" width="21" style="2" customWidth="1"/>
+    <col min="21" max="21" width="21.875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="29.75" style="2" customWidth="1"/>
+    <col min="23" max="25" width="27" style="2" customWidth="1"/>
     <col min="26" max="26" width="21.875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="29.75" style="2" customWidth="1"/>
-    <col min="28" max="30" width="27" style="2" customWidth="1"/>
-    <col min="31" max="32" width="27.25" style="2" customWidth="1"/>
-    <col min="33" max="33" width="27.5" style="2" customWidth="1"/>
-    <col min="34" max="34" width="25.125" style="2" customWidth="1"/>
-    <col min="35" max="38" width="22.125" style="2" customWidth="1"/>
-    <col min="39" max="39" width="21.25" style="2" customWidth="1"/>
-    <col min="40" max="41" width="22.25" style="2" customWidth="1"/>
-    <col min="42" max="43" width="24.75" style="2" customWidth="1"/>
-    <col min="44" max="47" width="22.5" style="2" customWidth="1"/>
-    <col min="48" max="48" width="24.75" style="2" customWidth="1"/>
-    <col min="49" max="49" width="27" style="2" customWidth="1"/>
-    <col min="50" max="50" width="20.75" style="2" customWidth="1"/>
-    <col min="51" max="52" width="19.75" style="2" customWidth="1"/>
-    <col min="53" max="53" width="21.375" style="2" customWidth="1"/>
-    <col min="54" max="54" width="22.75" style="2" customWidth="1"/>
-    <col min="55" max="55" width="23" style="2" customWidth="1"/>
-    <col min="56" max="61" width="24.5" style="2" customWidth="1"/>
-    <col min="62" max="62" width="21.375" style="2" customWidth="1"/>
-    <col min="63" max="63" width="19.75" style="2" customWidth="1"/>
-    <col min="64" max="64" width="23.75" style="2" customWidth="1"/>
-    <col min="65" max="65" width="27.625" style="2" customWidth="1"/>
-    <col min="66" max="73" width="9" style="2"/>
-    <col min="74" max="74" width="26.5" style="2" customWidth="1"/>
-    <col min="75" max="16384" width="9" style="2"/>
+    <col min="27" max="27" width="21" style="2" customWidth="1"/>
+    <col min="28" max="28" width="21.875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="29.75" style="2" customWidth="1"/>
+    <col min="30" max="32" width="27" style="2" customWidth="1"/>
+    <col min="33" max="34" width="27.25" style="2" customWidth="1"/>
+    <col min="35" max="35" width="27.5" style="2" customWidth="1"/>
+    <col min="36" max="36" width="25.125" style="2" customWidth="1"/>
+    <col min="37" max="40" width="22.125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="21.25" style="2" customWidth="1"/>
+    <col min="42" max="43" width="22.25" style="2" customWidth="1"/>
+    <col min="44" max="45" width="24.75" style="2" customWidth="1"/>
+    <col min="46" max="49" width="22.5" style="2" customWidth="1"/>
+    <col min="50" max="50" width="24.75" style="2" customWidth="1"/>
+    <col min="51" max="51" width="27" style="2" customWidth="1"/>
+    <col min="52" max="52" width="20.75" style="2" customWidth="1"/>
+    <col min="53" max="54" width="19.75" style="2" customWidth="1"/>
+    <col min="55" max="55" width="21.375" style="2" customWidth="1"/>
+    <col min="56" max="56" width="22.75" style="2" customWidth="1"/>
+    <col min="57" max="57" width="23" style="2" customWidth="1"/>
+    <col min="58" max="63" width="24.5" style="2" customWidth="1"/>
+    <col min="64" max="64" width="21.375" style="2" customWidth="1"/>
+    <col min="65" max="65" width="19.75" style="2" customWidth="1"/>
+    <col min="66" max="66" width="23.75" style="2" customWidth="1"/>
+    <col min="67" max="67" width="27.625" style="2" customWidth="1"/>
+    <col min="68" max="75" width="9" style="2"/>
+    <col min="76" max="76" width="26.5" style="2" customWidth="1"/>
+    <col min="77" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:76" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2008,13 +2056,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>3</v>
@@ -2043,182 +2091,188 @@
       <c r="P1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA1" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="Z1" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AO1" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AT1" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AX1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="AY1" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AY1" s="10" t="s">
+      <c r="BA1" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="BB1" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="AZ1" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="BF1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="BC1" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="BG1" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BH1" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="BJ1" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="BL1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="BK1" s="11" t="s">
+      <c r="BM1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="BL1" s="11" t="s">
+      <c r="BN1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BX1" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:74" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:76" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2232,13 +2286,13 @@
         <v>166</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>161</v>
@@ -2265,180 +2319,186 @@
         <v>197</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="AD2" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AO2" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AT2" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="AV2" s="10" t="s">
+      <c r="AV2" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AX2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AY2" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AY2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="BB2" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="AZ2" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="BE2" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BF2" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="BD2" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BG2" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="BI2" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="BF2" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BJ2" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="BK2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="BI2" s="3" t="s">
+      <c r="BL2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BM2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN2" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="BO2" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="BJ2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="BK2" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="BL2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="BM2" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5" t="s">
+      <c r="BP2" s="5"/>
+      <c r="BQ2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="BP2" s="5" t="s">
+      <c r="BR2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BQ2" s="5" t="s">
+      <c r="BS2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="BR2" s="5"/>
-      <c r="BS2" s="5" t="s">
+      <c r="BT2" s="5"/>
+      <c r="BU2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="BT2" s="5" t="s">
+      <c r="BV2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BU2" s="5" t="s">
+      <c r="BW2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="BV2" s="7" t="s">
+      <c r="BX2" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:76" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2452,13 +2512,13 @@
         <v>167</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>5</v>
@@ -2470,199 +2530,205 @@
         <v>5</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>193</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="T3" s="9" t="s">
+      <c r="U3" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AJ3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AK3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AM3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AP3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="AP3" s="8" t="s">
+      <c r="AQ3" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AQ3" s="8" t="s">
+      <c r="AS3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AR3" s="8" t="s">
+      <c r="AT3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AS3" s="8" t="s">
+      <c r="AU3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AT3" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="AV3" s="10" t="s">
+      <c r="AV3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="AW3" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AW3" s="10" t="s">
+      <c r="AY3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AX3" s="10" t="s">
+      <c r="AZ3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AY3" s="10" t="s">
+      <c r="BA3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AZ3" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>284</v>
+      <c r="BB3" s="10" t="s">
+        <v>330</v>
       </c>
       <c r="BC3" s="3" t="s">
         <v>285</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BE3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="BI3" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="BG3" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="BJ3" s="7" t="s">
+      <c r="BK3" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="BL3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="BK3" s="11" t="s">
+      <c r="BM3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="BL3" s="11" t="s">
+      <c r="BN3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="BM3" s="5" t="s">
+      <c r="BO3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="BN3" s="5" t="s">
+      <c r="BP3" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="BO3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BP3" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="BQ3" s="5" t="s">
         <v>128</v>
       </c>
       <c r="BR3" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BS3" s="5" t="s">
         <v>128</v>
       </c>
       <c r="BT3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BU3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BV3" s="7" t="s">
+      <c r="BV3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX3" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:74" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:76" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -2673,13 +2739,13 @@
         <v>168</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -2700,73 +2766,73 @@
         <v>188</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q4" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="T4" s="9" t="s">
+      <c r="U4" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA4" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="AB4" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AC4" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD4" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="AA4" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AE4" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AF4" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="AD4" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>35</v>
@@ -2774,11 +2840,11 @@
       <c r="AL4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN4" s="8" t="s">
-        <v>56</v>
+      <c r="AM4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="AO4" s="8" t="s">
         <v>56</v>
@@ -2793,81 +2859,87 @@
         <v>56</v>
       </c>
       <c r="AS4" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="AT4" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AU4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AV4" s="10" t="s">
+      <c r="AW4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AW4" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="AX4" s="10" t="s">
+      <c r="AY4" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AY4" s="10" t="s">
+      <c r="BA4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AZ4" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="BE4" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="BC4" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="BD4" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="BE4" s="3"/>
       <c r="BF4" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="BG4" s="3"/>
       <c r="BH4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="BI4" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="BJ4" s="7" t="s">
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="BL4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BK4" s="11" t="s">
+      <c r="BM4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="BL4" s="11" t="s">
+      <c r="BN4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="BM4" s="5" t="s">
+      <c r="BO4" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="BP4" s="5"/>
       <c r="BQ4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
       <c r="BT4" s="5"/>
-      <c r="BU4" s="5" t="s">
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="BV4" s="7" t="s">
+      <c r="BX4" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:74" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:76" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2883,22 +2955,22 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
       <c r="AQ5" s="8"/>
@@ -2906,13 +2978,13 @@
       <c r="AS5" s="8"/>
       <c r="AT5" s="8"/>
       <c r="AU5" s="8"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
       <c r="AX5" s="10"/>
       <c r="AY5" s="10"/>
       <c r="AZ5" s="10"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
       <c r="BC5" s="3"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
@@ -2920,11 +2992,11 @@
       <c r="BG5" s="3"/>
       <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
-      <c r="BJ5" s="7"/>
-      <c r="BK5" s="11"/>
-      <c r="BL5" s="11"/>
-      <c r="BM5" s="5"/>
-      <c r="BN5" s="5"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="7"/>
+      <c r="BM5" s="11"/>
+      <c r="BN5" s="11"/>
       <c r="BO5" s="5"/>
       <c r="BP5" s="5"/>
       <c r="BQ5" s="5"/>
@@ -2932,9 +3004,11 @@
       <c r="BS5" s="5"/>
       <c r="BT5" s="5"/>
       <c r="BU5" s="5"/>
-      <c r="BV5" s="7"/>
+      <c r="BV5" s="5"/>
+      <c r="BW5" s="5"/>
+      <c r="BX5" s="7"/>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
@@ -2954,7 +3028,7 @@
         <v>-1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H6" s="2">
         <v>-1</v>
@@ -2975,140 +3049,140 @@
         <v>189</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="P6" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q6" s="2">
+        <v>203</v>
+      </c>
+      <c r="S6" s="2">
         <v>0</v>
       </c>
-      <c r="R6" s="2">
+      <c r="T6" s="2">
         <v>1.2</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="X6" s="2">
+      <c r="X6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z6" s="2">
         <v>0</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AA6" s="2">
         <v>1.2</v>
       </c>
-      <c r="Z6" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AD6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AM6" s="2">
+      <c r="AE6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO6" s="2">
         <v>0</v>
       </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AP6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AO6" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="AQ6" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AS6" s="2" t="s">
+      <c r="AU6" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AT6" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="AV6" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AW6" s="2" t="s">
+      <c r="AY6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AX6" s="2" t="s">
+      <c r="AZ6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AY6" s="2" t="s">
+      <c r="BA6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AZ6" s="4">
+      <c r="BB6" s="4">
         <v>0</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="BC6" s="2" t="s">
         <v>292</v>
       </c>
       <c r="BD6" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="BE6" s="2" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="BF6" s="2" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="BG6" s="2" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="BH6" s="2" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="BI6" s="2" t="s">
-        <v>323</v>
+        <v>203</v>
       </c>
       <c r="BJ6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="BK6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BL6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BL6" s="2" t="s">
+      <c r="BN6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BM6" s="4"/>
-      <c r="BO6" s="4">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="4">
-        <v>100001</v>
-      </c>
+      <c r="BO6" s="4"/>
       <c r="BQ6" s="4">
         <v>1</v>
       </c>
       <c r="BR6" s="4">
+        <v>100001</v>
+      </c>
+      <c r="BS6" s="4">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>150</v>
       </c>
@@ -3128,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H7" s="2">
         <v>-1.5</v>
@@ -3149,175 +3223,181 @@
         <v>190</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q7" s="2">
+        <v>214</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="S7" s="2">
         <v>1</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>1.21</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="X7" s="2">
+      <c r="X7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z7" s="2">
         <v>1</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>1.21</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="AE7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AI7" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="AK7" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AM7" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO7" s="2">
         <v>1</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AP7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AO7" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="AQ7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AS7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AS7" s="2" t="s">
+      <c r="AU7" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AT7" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU7" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="AV7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AX7" s="2" t="s">
+      <c r="AZ7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AY7" s="2" t="s">
+      <c r="BA7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AZ7" s="4">
+      <c r="BB7" s="4">
         <v>3</v>
       </c>
-      <c r="BA7" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="BB7" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="BC7" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BD7" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BE7" s="2" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="BF7" s="2" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="BG7" s="2" t="s">
-        <v>230</v>
+        <v>311</v>
       </c>
       <c r="BH7" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="BI7" s="2" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="BJ7" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="BK7" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="BL7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BK7" s="2" t="s">
+      <c r="BM7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BL7" s="2" t="s">
+      <c r="BN7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BM7" s="4"/>
-      <c r="BN7" s="4"/>
-      <c r="BO7" s="4">
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7" s="4">
         <v>3</v>
       </c>
-      <c r="BP7" s="4">
+      <c r="BR7" s="4">
         <v>0</v>
       </c>
-      <c r="BQ7" s="4">
+      <c r="BS7" s="4">
         <v>10</v>
       </c>
-      <c r="BR7" s="4"/>
-      <c r="BS7" s="4">
+      <c r="BT7" s="4"/>
+      <c r="BU7" s="4">
         <v>3</v>
       </c>
-      <c r="BT7" s="4">
+      <c r="BV7" s="4">
         <v>0</v>
       </c>
-      <c r="BU7" s="4">
+      <c r="BW7" s="4">
         <v>0</v>
       </c>
-      <c r="BV7" s="2" t="s">
+      <c r="BX7" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
@@ -3331,13 +3411,13 @@
         <v>171</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H8" s="2">
         <v>4.5</v>
@@ -3358,181 +3438,187 @@
         <v>191</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q8" s="2">
+        <v>212</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S8" s="2">
         <v>2</v>
       </c>
-      <c r="R8" s="2">
+      <c r="T8" s="2">
         <v>3.7</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="X8" s="2">
+      <c r="X8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z8" s="2">
         <v>2</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AA8" s="2">
         <v>3.7</v>
       </c>
-      <c r="Z8" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AB8" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB8" s="2" t="s">
+      <c r="AD8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="AE8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AI8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM8" s="2">
+      <c r="AM8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO8" s="2">
         <v>0</v>
       </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AP8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AO8" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AP8" s="2" t="s">
+      <c r="AQ8" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AS8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AR8" s="2" t="s">
+      <c r="AT8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AS8" s="2" t="s">
+      <c r="AU8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AT8" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU8" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="AV8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AX8" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AW8" s="2" t="s">
+      <c r="AY8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AX8" s="2" t="s">
+      <c r="AZ8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AY8" s="2" t="s">
+      <c r="BA8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AZ8" s="4">
+      <c r="BB8" s="4">
         <v>101</v>
       </c>
-      <c r="BA8" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="BB8" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="BC8" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BD8" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BE8" s="2" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="BF8" s="2" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="BG8" s="2" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
       <c r="BH8" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="BI8" s="2" t="s">
-        <v>324</v>
+        <v>205</v>
       </c>
       <c r="BJ8" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BK8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="BL8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BK8" s="2" t="s">
+      <c r="BM8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="BL8" s="2" t="s">
+      <c r="BN8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="BM8" s="4"/>
-      <c r="BN8" s="4"/>
-      <c r="BO8" s="4">
+      <c r="BO8" s="4"/>
+      <c r="BP8" s="4"/>
+      <c r="BQ8" s="4">
         <v>1</v>
       </c>
-      <c r="BP8" s="4">
+      <c r="BR8" s="4">
         <v>100</v>
       </c>
-      <c r="BQ8" s="4">
+      <c r="BS8" s="4">
         <v>50</v>
       </c>
-      <c r="BR8" s="4"/>
-      <c r="BS8" s="4">
+      <c r="BT8" s="4"/>
+      <c r="BU8" s="4">
         <v>11</v>
       </c>
-      <c r="BT8" s="4">
+      <c r="BV8" s="4">
         <v>0</v>
       </c>
-      <c r="BU8" s="4">
+      <c r="BW8" s="4">
         <v>1</v>
       </c>
-      <c r="BV8" s="2" t="s">
+      <c r="BX8" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
@@ -3546,13 +3632,13 @@
         <v>172</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H9" s="2">
         <v>4.51</v>
@@ -3573,177 +3659,183 @@
         <v>192</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q9" s="2">
+        <v>213</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="S9" s="2">
         <v>5</v>
       </c>
-      <c r="R9" s="2">
+      <c r="T9" s="2">
         <v>5</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="X9" s="2">
+      <c r="X9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z9" s="2">
         <v>5</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AA9" s="2">
         <v>5</v>
       </c>
-      <c r="Z9" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AB9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AD9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="AE9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="AI9" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="AJ9" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="AK9" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL9" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM9" s="2">
+        <v>142</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO9" s="2">
         <v>2</v>
       </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AP9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AO9" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AQ9" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AQ9" s="2" t="s">
+      <c r="AS9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AR9" s="2" t="s">
+      <c r="AT9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AS9" s="2" t="s">
+      <c r="AU9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AT9" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AU9" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="AV9" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AW9" s="2" t="s">
+      <c r="AY9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AX9" s="2" t="s">
+      <c r="AZ9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AY9" s="2" t="s">
+      <c r="BA9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AZ9" s="4">
+      <c r="BB9" s="4">
         <v>100001</v>
       </c>
-      <c r="BA9" s="2" t="s">
+      <c r="BC9" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD9" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="BB9" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="BC9" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="BD9" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="BE9" s="2" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="BF9" s="2" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="BG9" s="2" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="BH9" s="2" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="BI9" s="2" t="s">
-        <v>325</v>
+        <v>231</v>
       </c>
       <c r="BJ9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BK9" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BL9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BK9" s="2" t="s">
+      <c r="BM9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="BL9" s="2" t="s">
+      <c r="BN9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BM9" s="4"/>
-      <c r="BN9" s="4"/>
-      <c r="BO9" s="4">
+      <c r="BO9" s="4"/>
+      <c r="BP9" s="4"/>
+      <c r="BQ9" s="4">
         <v>1</v>
       </c>
-      <c r="BP9" s="4">
+      <c r="BR9" s="4">
         <v>100001</v>
       </c>
-      <c r="BQ9" s="4">
+      <c r="BS9" s="4">
         <v>55</v>
       </c>
-      <c r="BR9" s="4"/>
-      <c r="BS9" s="6">
+      <c r="BT9" s="4"/>
+      <c r="BU9" s="6">
         <v>1</v>
       </c>
-      <c r="BT9" s="4">
+      <c r="BV9" s="4">
         <v>100001</v>
       </c>
-      <c r="BU9" s="6">
+      <c r="BW9" s="6">
         <v>50</v>
       </c>
-      <c r="BV9" s="2" t="s">
+      <c r="BX9" s="2" t="s">
         <v>141</v>
       </c>
     </row>
